--- a/Spare CTI modules.xlsx
+++ b/Spare CTI modules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t>Hardware Modules:</t>
   </si>
@@ -149,9 +149,6 @@
   <si>
     <t>#</t>
   </si>
-  <si>
-    <t>x</t>
-  </si>
 </sst>
 </file>
 
@@ -392,7 +389,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{636FB45F-E828-44BC-BE83-07425D16A03D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -442,7 +439,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4374D493-ECDB-4B8C-94EF-E1834EA469A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -492,7 +489,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44CF934E-9EE5-4526-979B-DC949234216C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -542,7 +539,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3F1EE1-4A71-4E86-9B17-D31681BDADC6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -592,7 +589,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF64490-5EC1-4755-8B2D-4F7D653A9374}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -642,7 +639,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73E25C22-6D26-4C24-9BDC-8FC36B9FEE1C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -692,7 +689,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFE511D-9CC5-4885-ABFD-8B053F1BAD0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -742,7 +739,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D919312D-5BF7-4C86-A1F1-47883F5BE171}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -792,7 +789,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B262EF79-4238-40CB-8864-8C37B2C63431}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -842,7 +839,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA8AE1EB-CC84-4B78-A268-D554DE27F261}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -892,7 +889,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{528B4D54-3C40-43B4-885F-2E6DD02B9EFB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -942,7 +939,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E30AAFF6-252C-480D-BBCA-4F4646A02066}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -992,7 +989,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF7C8C7B-AC44-4460-AF76-7078CA52E107}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1042,7 +1039,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09192706-9FB9-4334-983E-B450AEBC6F93}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1092,7 +1089,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68C1B5D7-A9F3-4812-9B43-F43F628AB3CF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1142,7 +1139,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1305F80B-6170-4C71-8980-9764F52BD988}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1192,7 +1189,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2733557-D253-44AE-9874-C22940E5CE5A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1242,7 +1239,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F7282F-4635-4389-B15B-4EC55A13F410}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1292,7 +1289,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9FAF82-8CA9-4863-BE4E-EE159651671F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1342,7 +1339,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6AD857-4D17-433E-AF90-719ACCE9B480}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1392,7 +1389,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B798D784-259D-48F1-B2AC-6F013A02EC54}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1442,7 +1439,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B92EF1-504A-4335-9612-58B6B8F99CD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1492,7 +1489,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D04BB8-2F7B-4F49-8EC1-727E47E19DFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1542,7 +1539,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C20ED9-7024-4D10-808A-E50B066C38F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1592,7 +1589,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC13096A-9316-454D-9B6F-D9F61AF0AE8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1642,7 +1639,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558973EE-6501-4179-9DD4-87A23810AE69}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1692,7 +1689,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8913B2-6F78-40F9-AAB8-EF291C813185}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1742,7 +1739,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C28C0C4-FC6A-489E-AA02-D2E6AA53DDCD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1792,7 +1789,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2FA5EA9-605F-4550-BDB9-5FCDC852B967}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1842,7 +1839,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B37B70BC-A7EF-43F9-B674-ABABFD86C4D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1892,7 +1889,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D401AD12-DFBC-425B-BFA7-382BEE4403E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1942,7 +1939,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D42FE51-E323-4D05-BFFC-32B749ADE8A1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1992,7 +1989,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{537BE0F1-38C3-482A-A991-EDA7F8A5981E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2042,7 +2039,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC8D7D6-8A29-4EB8-87D7-96EEA040A370}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2092,7 +2089,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F98AE0DE-1600-4DAD-B9CE-26493D786D4A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2891,19 +2888,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId4" name="Control 35">
+        <control shapeId="1025" r:id="rId4" name="Control 1">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2911,24 +2908,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId4" name="Control 35"/>
+        <control shapeId="1025" r:id="rId4" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId6" name="Control 34">
+        <control shapeId="1026" r:id="rId6" name="Control 2">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2936,24 +2933,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId6" name="Control 34"/>
+        <control shapeId="1026" r:id="rId6" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId7" name="Control 33">
+        <control shapeId="1027" r:id="rId7" name="Control 3">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2961,24 +2958,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId7" name="Control 33"/>
+        <control shapeId="1027" r:id="rId7" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId8" name="Control 32">
+        <control shapeId="1028" r:id="rId8" name="Control 4">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2986,24 +2983,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId8" name="Control 32"/>
+        <control shapeId="1028" r:id="rId8" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId9" name="Control 31">
+        <control shapeId="1029" r:id="rId9" name="Control 5">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3011,24 +3008,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId9" name="Control 31"/>
+        <control shapeId="1029" r:id="rId9" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId10" name="Control 30">
+        <control shapeId="1030" r:id="rId10" name="Control 6">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3036,24 +3033,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId10" name="Control 30"/>
+        <control shapeId="1030" r:id="rId10" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId11" name="Control 29">
+        <control shapeId="1031" r:id="rId11" name="Control 7">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3061,24 +3058,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId11" name="Control 29"/>
+        <control shapeId="1031" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId12" name="Control 28">
+        <control shapeId="1032" r:id="rId12" name="Control 8">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3086,24 +3083,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId12" name="Control 28"/>
+        <control shapeId="1032" r:id="rId12" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId13" name="Control 27">
+        <control shapeId="1033" r:id="rId13" name="Control 9">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3111,24 +3108,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId13" name="Control 27"/>
+        <control shapeId="1033" r:id="rId13" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId14" name="Control 26">
+        <control shapeId="1034" r:id="rId14" name="Control 10">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3136,24 +3133,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId14" name="Control 26"/>
+        <control shapeId="1034" r:id="rId14" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId15" name="Control 25">
+        <control shapeId="1035" r:id="rId15" name="Control 11">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3161,24 +3158,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId15" name="Control 25"/>
+        <control shapeId="1035" r:id="rId15" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId16" name="Control 24">
+        <control shapeId="1036" r:id="rId16" name="Control 12">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3186,24 +3183,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId16" name="Control 24"/>
+        <control shapeId="1036" r:id="rId16" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId17" name="Control 23">
+        <control shapeId="1037" r:id="rId17" name="Control 13">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3211,24 +3208,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId17" name="Control 23"/>
+        <control shapeId="1037" r:id="rId17" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId18" name="Control 22">
+        <control shapeId="1038" r:id="rId18" name="Control 14">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3236,24 +3233,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId18" name="Control 22"/>
+        <control shapeId="1038" r:id="rId18" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId19" name="Control 21">
+        <control shapeId="1039" r:id="rId19" name="Control 15">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3261,24 +3258,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId19" name="Control 21"/>
+        <control shapeId="1039" r:id="rId19" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId20" name="Control 20">
+        <control shapeId="1040" r:id="rId20" name="Control 16">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3286,24 +3283,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId20" name="Control 20"/>
+        <control shapeId="1040" r:id="rId20" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId21" name="Control 19">
+        <control shapeId="1041" r:id="rId21" name="Control 17">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3311,7 +3308,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId21" name="Control 19"/>
+        <control shapeId="1041" r:id="rId21" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3341,19 +3338,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId23" name="Control 17">
+        <control shapeId="1043" r:id="rId23" name="Control 19">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3361,24 +3358,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId23" name="Control 17"/>
+        <control shapeId="1043" r:id="rId23" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId24" name="Control 16">
+        <control shapeId="1044" r:id="rId24" name="Control 20">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3386,24 +3383,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId24" name="Control 16"/>
+        <control shapeId="1044" r:id="rId24" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId25" name="Control 15">
+        <control shapeId="1045" r:id="rId25" name="Control 21">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3411,24 +3408,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId25" name="Control 15"/>
+        <control shapeId="1045" r:id="rId25" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId26" name="Control 14">
+        <control shapeId="1046" r:id="rId26" name="Control 22">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3436,24 +3433,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId26" name="Control 14"/>
+        <control shapeId="1046" r:id="rId26" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId27" name="Control 13">
+        <control shapeId="1047" r:id="rId27" name="Control 23">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3461,24 +3458,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId27" name="Control 13"/>
+        <control shapeId="1047" r:id="rId27" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId28" name="Control 12">
+        <control shapeId="1048" r:id="rId28" name="Control 24">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3486,24 +3483,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId28" name="Control 12"/>
+        <control shapeId="1048" r:id="rId28" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId29" name="Control 11">
+        <control shapeId="1049" r:id="rId29" name="Control 25">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3511,24 +3508,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId29" name="Control 11"/>
+        <control shapeId="1049" r:id="rId29" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId30" name="Control 10">
+        <control shapeId="1050" r:id="rId30" name="Control 26">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3536,24 +3533,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId30" name="Control 10"/>
+        <control shapeId="1050" r:id="rId30" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId31" name="Control 9">
+        <control shapeId="1051" r:id="rId31" name="Control 27">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3561,24 +3558,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId31" name="Control 9"/>
+        <control shapeId="1051" r:id="rId31" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId32" name="Control 8">
+        <control shapeId="1052" r:id="rId32" name="Control 28">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3586,24 +3583,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId32" name="Control 8"/>
+        <control shapeId="1052" r:id="rId32" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId33" name="Control 7">
+        <control shapeId="1053" r:id="rId33" name="Control 29">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3611,24 +3608,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId33" name="Control 7"/>
+        <control shapeId="1053" r:id="rId33" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId34" name="Control 6">
+        <control shapeId="1054" r:id="rId34" name="Control 30">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3636,24 +3633,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId34" name="Control 6"/>
+        <control shapeId="1054" r:id="rId34" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId35" name="Control 5">
+        <control shapeId="1055" r:id="rId35" name="Control 31">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3661,24 +3658,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId35" name="Control 5"/>
+        <control shapeId="1055" r:id="rId35" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId36" name="Control 4">
+        <control shapeId="1056" r:id="rId36" name="Control 32">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3686,24 +3683,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId36" name="Control 4"/>
+        <control shapeId="1056" r:id="rId36" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId37" name="Control 3">
+        <control shapeId="1057" r:id="rId37" name="Control 33">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3711,24 +3708,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId37" name="Control 3"/>
+        <control shapeId="1057" r:id="rId37" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId38" name="Control 2">
+        <control shapeId="1058" r:id="rId38" name="Control 34">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3736,24 +3733,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId38" name="Control 2"/>
+        <control shapeId="1058" r:id="rId38" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId39" name="Control 1">
+        <control shapeId="1059" r:id="rId39" name="Control 35">
           <controlPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3761,7 +3758,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId39" name="Control 1"/>
+        <control shapeId="1059" r:id="rId39" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3773,7 +3770,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3796,8 +3793,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>40</v>
+      <c r="A3" s="3">
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>

--- a/Spare CTI modules.xlsx
+++ b/Spare CTI modules.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Trains\CTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F6348250-9882-47E4-868F-AE5D18F99B2C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="11130" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="11130" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2415,7 +2416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:C79"/>
   <sheetViews>
@@ -2888,19 +2889,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1059" r:id="rId4" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>78</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2908,24 +2909,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="Control 1"/>
+        <control shapeId="1059" r:id="rId4" name="Control 35"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1058" r:id="rId6" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>76</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2933,24 +2934,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="Control 2"/>
+        <control shapeId="1058" r:id="rId6" name="Control 34"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId7" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1057" r:id="rId7" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>8</xdr:row>
+                <xdr:row>74</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2958,24 +2959,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId7" name="Control 3"/>
+        <control shapeId="1057" r:id="rId7" name="Control 33"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1056" r:id="rId8" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:row>72</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -2983,24 +2984,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="Control 4"/>
+        <control shapeId="1056" r:id="rId8" name="Control 32"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId9" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1055" r:id="rId9" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>70</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3008,24 +3009,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId9" name="Control 5"/>
+        <control shapeId="1055" r:id="rId9" name="Control 31"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId10" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1054" r:id="rId10" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:row>68</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3033,24 +3034,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId10" name="Control 6"/>
+        <control shapeId="1054" r:id="rId10" name="Control 30"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1031" r:id="rId11" name="Control 7">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1053" r:id="rId11" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>16</xdr:row>
+                <xdr:row>66</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3058,24 +3059,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1031" r:id="rId11" name="Control 7"/>
+        <control shapeId="1053" r:id="rId11" name="Control 29"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1032" r:id="rId12" name="Control 8">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1052" r:id="rId12" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>64</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3083,24 +3084,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1032" r:id="rId12" name="Control 8"/>
+        <control shapeId="1052" r:id="rId12" name="Control 28"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1033" r:id="rId13" name="Control 9">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1051" r:id="rId13" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>20</xdr:row>
+                <xdr:row>62</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3108,24 +3109,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1033" r:id="rId13" name="Control 9"/>
+        <control shapeId="1051" r:id="rId13" name="Control 27"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1034" r:id="rId14" name="Control 10">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1050" r:id="rId14" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>60</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3133,24 +3134,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1034" r:id="rId14" name="Control 10"/>
+        <control shapeId="1050" r:id="rId14" name="Control 26"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId15" name="Control 11">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1049" r:id="rId15" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>58</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3158,24 +3159,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1035" r:id="rId15" name="Control 11"/>
+        <control shapeId="1049" r:id="rId15" name="Control 25"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId16" name="Control 12">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1048" r:id="rId16" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>26</xdr:row>
+                <xdr:row>53</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3183,24 +3184,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1036" r:id="rId16" name="Control 12"/>
+        <control shapeId="1048" r:id="rId16" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1037" r:id="rId17" name="Control 13">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1047" r:id="rId17" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:row>51</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3208,24 +3209,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1037" r:id="rId17" name="Control 13"/>
+        <control shapeId="1047" r:id="rId17" name="Control 23"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId18" name="Control 14">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1046" r:id="rId18" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>49</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3233,24 +3234,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId18" name="Control 14"/>
+        <control shapeId="1046" r:id="rId18" name="Control 22"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId19" name="Control 15">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1045" r:id="rId19" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>32</xdr:row>
+                <xdr:row>47</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3258,24 +3259,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1039" r:id="rId19" name="Control 15"/>
+        <control shapeId="1045" r:id="rId19" name="Control 21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId20" name="Control 16">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1044" r:id="rId20" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>37</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3283,24 +3284,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1040" r:id="rId20" name="Control 16"/>
+        <control shapeId="1044" r:id="rId20" name="Control 20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId21" name="Control 17">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1043" r:id="rId21" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>39</xdr:row>
+                <xdr:row>43</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3308,13 +3309,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1041" r:id="rId21" name="Control 17"/>
+        <control shapeId="1043" r:id="rId21" name="Control 19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1042" r:id="rId22" name="Control 18">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3338,19 +3339,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId23" name="Control 19">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1041" r:id="rId23" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>43</xdr:row>
+                <xdr:row>39</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3358,24 +3359,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1043" r:id="rId23" name="Control 19"/>
+        <control shapeId="1041" r:id="rId23" name="Control 17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId24" name="Control 20">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1040" r:id="rId24" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>45</xdr:row>
+                <xdr:row>37</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3383,24 +3384,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId24" name="Control 20"/>
+        <control shapeId="1040" r:id="rId24" name="Control 16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId25" name="Control 21">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1039" r:id="rId25" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>47</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3408,24 +3409,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1045" r:id="rId25" name="Control 21"/>
+        <control shapeId="1039" r:id="rId25" name="Control 15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId26" name="Control 22">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1038" r:id="rId26" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>49</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3433,24 +3434,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId26" name="Control 22"/>
+        <control shapeId="1038" r:id="rId26" name="Control 14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1047" r:id="rId27" name="Control 23">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1037" r:id="rId27" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>51</xdr:row>
+                <xdr:row>28</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3458,24 +3459,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1047" r:id="rId27" name="Control 23"/>
+        <control shapeId="1037" r:id="rId27" name="Control 13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId28" name="Control 24">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1036" r:id="rId28" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>53</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3483,24 +3484,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId28" name="Control 24"/>
+        <control shapeId="1036" r:id="rId28" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId29" name="Control 25">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1035" r:id="rId29" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>58</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3508,24 +3509,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1049" r:id="rId29" name="Control 25"/>
+        <control shapeId="1035" r:id="rId29" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId30" name="Control 26">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1034" r:id="rId30" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>60</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3533,24 +3534,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1050" r:id="rId30" name="Control 26"/>
+        <control shapeId="1034" r:id="rId30" name="Control 10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId31" name="Control 27">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1033" r:id="rId31" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>62</xdr:row>
+                <xdr:row>20</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3558,24 +3559,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1051" r:id="rId31" name="Control 27"/>
+        <control shapeId="1033" r:id="rId31" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId32" name="Control 28">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1032" r:id="rId32" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>64</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3583,24 +3584,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1052" r:id="rId32" name="Control 28"/>
+        <control shapeId="1032" r:id="rId32" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId33" name="Control 29">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1031" r:id="rId33" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>66</xdr:row>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3608,24 +3609,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1053" r:id="rId33" name="Control 29"/>
+        <control shapeId="1031" r:id="rId33" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId34" name="Control 30">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1030" r:id="rId34" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>68</xdr:row>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3633,24 +3634,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1054" r:id="rId34" name="Control 30"/>
+        <control shapeId="1030" r:id="rId34" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId35" name="Control 31">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1029" r:id="rId35" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>70</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3658,24 +3659,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1055" r:id="rId35" name="Control 31"/>
+        <control shapeId="1029" r:id="rId35" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId36" name="Control 32">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1028" r:id="rId36" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>72</xdr:row>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3683,24 +3684,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1056" r:id="rId36" name="Control 32"/>
+        <control shapeId="1028" r:id="rId36" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId37" name="Control 33">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1027" r:id="rId37" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>74</xdr:row>
+                <xdr:row>8</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3708,24 +3709,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1057" r:id="rId37" name="Control 33"/>
+        <control shapeId="1027" r:id="rId37" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId38" name="Control 34">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1026" r:id="rId38" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>76</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3733,24 +3734,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1058" r:id="rId38" name="Control 34"/>
+        <control shapeId="1026" r:id="rId38" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId39" name="Control 35">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId39" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>78</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>228600</xdr:rowOff>
               </to>
             </anchor>
@@ -3758,7 +3759,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1059" r:id="rId39" name="Control 35"/>
+        <control shapeId="1025" r:id="rId39" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3766,11 +3767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3794,7 +3795,7 @@
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
